--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
@@ -540,10 +540,10 @@
         <v>6.062884</v>
       </c>
       <c r="I2">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J2">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N2">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O2">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P2">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q2">
-        <v>1.403846643470666</v>
+        <v>1.403846643470667</v>
       </c>
       <c r="R2">
         <v>12.634619791236</v>
       </c>
       <c r="S2">
-        <v>0.04375948687060602</v>
+        <v>0.02854807226943292</v>
       </c>
       <c r="T2">
-        <v>0.04375948687060603</v>
+        <v>0.02854807226943292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>6.062884</v>
       </c>
       <c r="I3">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J3">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N3">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O3">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P3">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q3">
-        <v>9.55338063032889</v>
+        <v>10.85985668310578</v>
       </c>
       <c r="R3">
-        <v>85.98042567296001</v>
+        <v>97.73871014795201</v>
       </c>
       <c r="S3">
-        <v>0.2977896739698365</v>
+        <v>0.2208417670597692</v>
       </c>
       <c r="T3">
-        <v>0.2977896739698365</v>
+        <v>0.2208417670597692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>6.062884</v>
       </c>
       <c r="I4">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J4">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N4">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O4">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P4">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q4">
-        <v>0.1019103435022222</v>
+        <v>0.04757073517155556</v>
       </c>
       <c r="R4">
-        <v>0.9171930915200001</v>
+        <v>0.428136616544</v>
       </c>
       <c r="S4">
-        <v>0.003176660612614576</v>
+        <v>0.000967379729049442</v>
       </c>
       <c r="T4">
-        <v>0.003176660612614576</v>
+        <v>0.000967379729049442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.841556666666667</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H5">
-        <v>11.52467</v>
+        <v>18.154049</v>
       </c>
       <c r="I5">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J5">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N5">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O5">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P5">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q5">
-        <v>2.668510447603333</v>
+        <v>4.203527686502334</v>
       </c>
       <c r="R5">
-        <v>24.01659402843</v>
+        <v>37.83174917852101</v>
       </c>
       <c r="S5">
-        <v>0.08318048729830013</v>
+        <v>0.08548128297272821</v>
       </c>
       <c r="T5">
-        <v>0.08318048729830015</v>
+        <v>0.08548128297272822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.841556666666667</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H6">
-        <v>11.52467</v>
+        <v>18.154049</v>
       </c>
       <c r="I6">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J6">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N6">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O6">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P6">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q6">
-        <v>18.15960179164445</v>
+        <v>32.51758904806356</v>
       </c>
       <c r="R6">
-        <v>163.4364161248</v>
+        <v>292.658301432572</v>
       </c>
       <c r="S6">
-        <v>0.5660553165638589</v>
+        <v>0.6612648799564093</v>
       </c>
       <c r="T6">
-        <v>0.566055316563859</v>
+        <v>0.6612648799564094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.841556666666667</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H7">
-        <v>11.52467</v>
+        <v>18.154049</v>
       </c>
       <c r="I7">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J7">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N7">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O7">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P7">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q7">
-        <v>0.1937168975111111</v>
+        <v>0.1424407026871111</v>
       </c>
       <c r="R7">
-        <v>1.7434520776</v>
+        <v>1.281966324184</v>
       </c>
       <c r="S7">
-        <v>0.006038374684783814</v>
+        <v>0.002896618012610878</v>
       </c>
       <c r="T7">
-        <v>0.006038374684783814</v>
+        <v>0.002896618012610878</v>
       </c>
     </row>
   </sheetData>
